--- a/estado_cuenta_clientes.xlsx
+++ b/estado_cuenta_clientes.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -42,8 +42,14 @@
         <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,15 +57,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +516,194 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ams European</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>F56458</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>390</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Ams European</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>390</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/estado_cuenta_clientes.xlsx
+++ b/estado_cuenta_clientes.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="n">
         <v>390</v>
@@ -607,100 +607,187 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Ams European</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Etnico</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-----------------</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Total Facturas</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>390</v>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Total Pagado Cliente</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>Total Comisiones Banc</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>390</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
+          <t>Ams European</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>390</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
           <t>Mhs International Gmbh &amp; Co. Kg</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Etnico</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>-----------------</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Total Facturas</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>1538.05</v>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Total Pagado Cliente</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>1538.05</v>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>Total Comisiones Banc</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/estado_cuenta_clientes.xlsx
+++ b/estado_cuenta_clientes.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,29 +519,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ams European</t>
+          <t>Abc Fruits Gmbh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Etnico</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F56458</t>
+          <t>F900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>-29</v>
       </c>
       <c r="F2" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -572,58 +572,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="F3" t="n">
-        <v>1538.05</v>
+        <v>1235</v>
       </c>
       <c r="G3" t="n">
-        <v>1538.05</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Pagada</t>
+          <t>Pendiente Pago</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barakat Vegetables And Fruits</t>
+          <t>Majid Al Futtaim Hypermarkets</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Etnico</t>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-20</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-60</v>
+        <v>-35</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -645,150 +646,9115 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Ams European</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Etnico</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Family Food Centre W.L.L</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>335</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>341</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-28</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mirak Royal Nature Fruit and Veget</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4383.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>4383.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Al Jazira Group</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5103.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>5103.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-28</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3236.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>3236.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Lulu Hyper Market Trading Co.W.Ll</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5069.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>5069.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2915.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2915.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Star of king contracting,real estate &amp; Trading W.L.L</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4747.85</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4735.22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-5.57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3362</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5364</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3154.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>3154.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lulu Hyper Market Trading Co.W.Ll</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5356.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>5356.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3960</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4992</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3128.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>3128.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4996</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12439.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>12439.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ecuafields</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>101223</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3648</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ecuafields</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>291223</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3648</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10430.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>10430.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8445.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>8445.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>World Fruit Centre Wll</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5428.69</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5397</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3678.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>3678.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3272.3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>3272.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1691</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4981</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8517</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4982</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3641.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>3641.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3719</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Lulu Hyper Market Trading Co.W.Ll</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3700.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>3700.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>17</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4256.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>4256.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4968</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4776.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>4776.7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4107</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5374.6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>5374.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ecuafields</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>181223</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>15</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3648</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6415.4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>6415.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>22</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6121.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>6121.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4972</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>23372.2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23372.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-34</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8442</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fresh Fruits Company Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3380</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4145</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3681.2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>3681.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4940</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4544.6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>4544.6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4943</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3785.1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3767.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4606.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4589</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4945</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>15006.9</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14989.4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>29</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4764.7</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>4764.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Lulu Hyper Market Trading Co.W.Ll</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5167</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4955</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>22339</v>
+      </c>
+      <c r="G61" t="n">
+        <v>22339</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4935</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10071.6</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10048.27</v>
+      </c>
+      <c r="H62" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4931</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5601.3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5577.97</v>
+      </c>
+      <c r="H63" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4928</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6359.18</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>6359.18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4934</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13348</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13348</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2561.4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2547.65</v>
+      </c>
+      <c r="H66" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4921</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7813.2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7789.87</v>
+      </c>
+      <c r="H67" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>16</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3980</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Lulu Hyper Market Trading Co.W.Ll</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>15</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7968.95</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>7968.95</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>38</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5045.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>5045.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Cm Foodmarket Srl</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>31</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9348</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>9348</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4922</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15540</v>
+      </c>
+      <c r="G72" t="n">
+        <v>12808.7</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>2731.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4911</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8187</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8199.799999999999</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8173.82</v>
+      </c>
+      <c r="H74" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>44</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8485.200000000001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>8485.200000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3527</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3513.25</v>
+      </c>
+      <c r="H76" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4548.94</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4522.96</v>
+      </c>
+      <c r="H77" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4897</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9962.200000000001</v>
+      </c>
+      <c r="G78" t="n">
+        <v>9962.200000000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4887</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3688.32</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3670.83</v>
+      </c>
+      <c r="H79" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4899</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8401.200000000001</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>8401.200000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7566</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7529.5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17259.32</v>
+      </c>
+      <c r="G82" t="n">
+        <v>17241.82</v>
+      </c>
+      <c r="H82" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1861.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1861.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3128.1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3114.35</v>
+      </c>
+      <c r="H84" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6317.6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>6317.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Cm Foodmarket Srl</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4882</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12495</v>
+      </c>
+      <c r="G87" t="n">
+        <v>12495</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3771</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3757.25</v>
+      </c>
+      <c r="H88" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4865</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>16712.92</v>
+      </c>
+      <c r="G89" t="n">
+        <v>16712.98</v>
+      </c>
+      <c r="H89" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>-17.56</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4859</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2742.5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2198.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8405.799999999999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8405.799999999999</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>72001</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>49</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5640</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4851</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5897.4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5551.96</v>
+      </c>
+      <c r="H93" t="n">
+        <v>15</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>330.44</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4855</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7145.8</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>7145.8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4838</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2729.2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2729.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4853</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16592.76</v>
+      </c>
+      <c r="G96" t="n">
+        <v>16575.27</v>
+      </c>
+      <c r="H96" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6167.8</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6144.47</v>
+      </c>
+      <c r="H97" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>16</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7685</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4817</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3459</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3459</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5390.3</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4360.58</v>
+      </c>
+      <c r="H100" t="n">
+        <v>15</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1014.72</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2549.1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2549.1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9283.08</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9259.75</v>
+      </c>
+      <c r="H102" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4809</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8910</v>
+      </c>
+      <c r="G103" t="n">
+        <v>8910</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4808</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7505</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7496.67</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4796</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4977</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4977</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3075</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3057.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4794</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5610.7</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5587.37</v>
+      </c>
+      <c r="H107" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Abc Fruits Gmbh</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>63</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13760.35</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>13760.35</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4793</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3820.2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3805.2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>15</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4785</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1961.67</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>66</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7524</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4779</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5075.04</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5057.54</v>
+      </c>
+      <c r="H112" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4782</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8461.799999999999</v>
+      </c>
+      <c r="G113" t="n">
+        <v>8461.799999999999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4774</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3881</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3881</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10711.6</v>
+      </c>
+      <c r="G115" t="n">
+        <v>10694.1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>4758</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7380</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7370</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>4756</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5531.5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5514</v>
+      </c>
+      <c r="H117" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4744</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>78</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8327.5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>8327.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4747</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3493.5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3493.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4750</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4997.4</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4979.9</v>
+      </c>
+      <c r="H120" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4748</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4490.4</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4482.07</v>
+      </c>
+      <c r="H121" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4741</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4411.16</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4399.5</v>
+      </c>
+      <c r="H122" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>11247.7</v>
+      </c>
+      <c r="G123" t="n">
+        <v>11247.7</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4736</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7305</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7295</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4876</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4864.34</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4730</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4377.06</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4365.4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3779.25</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3767.59</v>
+      </c>
+      <c r="H127" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4708</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3569.15</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3557.49</v>
+      </c>
+      <c r="H128" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4435.5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4423.84</v>
+      </c>
+      <c r="H129" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4121.79</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4104.76</v>
+      </c>
+      <c r="H130" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4023</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4023</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8450.799999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>8430.799999999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>20</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Danube Star Company For Bakeries And Marketing</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3343.1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3237.6</v>
+      </c>
+      <c r="H133" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G134" t="n">
+        <v>7480</v>
+      </c>
+      <c r="H134" t="n">
+        <v>20</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4655</v>
+      </c>
+      <c r="H135" t="n">
+        <v>20</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4718</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10563.8</v>
+      </c>
+      <c r="G136" t="n">
+        <v>10563.8</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7017.5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6997.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>20</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4447</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4429.97</v>
+      </c>
+      <c r="H138" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4707</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9808.200000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9808.200000000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4399.85</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4385.85</v>
+      </c>
+      <c r="H140" t="n">
+        <v>14</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3489.6</v>
+      </c>
+      <c r="G141" t="n">
+        <v>3489.6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1264</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4862.95</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4848.95</v>
+      </c>
+      <c r="H143" t="n">
+        <v>14</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Century Global PTE LTDA </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4683</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3300</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3300</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7203.7</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7189.7</v>
+      </c>
+      <c r="H145" t="n">
+        <v>14</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4155.64</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4138.61</v>
+      </c>
+      <c r="H146" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1374.9</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1374.9</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4271</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4257</v>
+      </c>
+      <c r="H148" t="n">
+        <v>14</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2926</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2901</v>
+      </c>
+      <c r="H149" t="n">
+        <v>25</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4664</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9940.799999999999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>9940.799999999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1768</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1750.97</v>
+      </c>
+      <c r="H151" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4650</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12282</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12268</v>
+      </c>
+      <c r="H152" t="n">
+        <v>14</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2943</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2800.5</v>
+      </c>
+      <c r="H153" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1412.28</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1621.8</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>-209.52</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7831</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7831</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3484.5</v>
+      </c>
+      <c r="G156" t="n">
+        <v>3467</v>
+      </c>
+      <c r="H156" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5210</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5185</v>
+      </c>
+      <c r="H157" t="n">
+        <v>25</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2463</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2445.97</v>
+      </c>
+      <c r="H158" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Danube Star Company For Bakeries And Marketing</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2645</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2539.5</v>
+      </c>
+      <c r="H159" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4780</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4762.5</v>
+      </c>
+      <c r="H160" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1757.86</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1740.83</v>
+      </c>
+      <c r="H161" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1968.5</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1951</v>
+      </c>
+      <c r="H162" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2655</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2637.97</v>
+      </c>
+      <c r="H164" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Prime flowers importacao e exportacao flores e frutas LTDA</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>255144</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>133</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3552.5</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>3552.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Century Global PTE LTDA </t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
         <is>
           <t>-----------------</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D166" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E166" s="2" t="inlineStr">
         <is>
           <t>Total Facturas</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>390</v>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="F166" s="2" t="n">
+        <v>3300</v>
+      </c>
+      <c r="G166" s="2" t="inlineStr">
         <is>
           <t>Total Pagado Cliente</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="H166" s="2" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I166" s="2" t="inlineStr">
         <is>
           <t>Total Comisiones Banc</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="J166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Lulu Hyper Market Trading Co.W.Ll</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>16836.25</v>
+      </c>
+      <c r="G167" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2" t="n">
+        <v>16836.25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>5640</v>
+      </c>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" s="2" t="n">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>8327.5</v>
+      </c>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" s="2" t="n">
+        <v>8327.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Danube Star Company For Bakeries And Marketing</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>5988.1</v>
+      </c>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>5777.1</v>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="K170" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>7745.4</v>
+      </c>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2" t="n">
+        <v>7745.4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Star of king contracting,real estate &amp; Trading W.L.L</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>4747.85</v>
+      </c>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>4735.22</v>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K172" s="2" t="n">
+        <v>-5.57</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>34188.3</v>
+      </c>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>34138.3</v>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K173" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Prime flowers importacao e exportacao flores e frutas LTDA</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>3552.5</v>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2" t="n">
+        <v>3552.5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>184665.1</v>
+      </c>
+      <c r="G175" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>169494.2</v>
+      </c>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2" t="n">
+        <v>15170.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>2915.5</v>
+      </c>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="2" t="n">
+        <v>2915.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>5364</v>
+      </c>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" s="2" t="n">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>3960</v>
+      </c>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2" t="n">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>Abc Fruits Gmbh</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>13760.35</v>
+      </c>
+      <c r="G179" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" s="2" t="n">
+        <v>13760.35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>Barakat Vegetables And Fruits</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Etnico</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>-----------------</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D180" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>Total Facturas</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="F180" s="2" t="n">
+        <v>104833.87</v>
+      </c>
+      <c r="G180" s="2" t="inlineStr">
         <is>
           <t>Total Pagado Cliente</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="H180" s="2" t="n">
+        <v>35189.49</v>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
         <is>
           <t>Total Comisiones Banc</t>
         </is>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="J180" s="2" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="K180" s="2" t="n">
+        <v>69500.17999999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>256592.7</v>
+      </c>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>232462.58</v>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="n">
+        <v>594.4</v>
+      </c>
+      <c r="K181" s="2" t="n">
+        <v>23535.72</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>34109</v>
+      </c>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>26800</v>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K182" s="2" t="n">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>Cm Foodmarket Srl</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>19348</v>
+      </c>
+      <c r="G183" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" s="2" t="n">
+        <v>19348</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G184" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="2" t="n">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J185" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>23660</v>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>12932.5</v>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J186" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="K186" s="2" t="n">
+        <v>10672.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J188" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>1412.28</v>
+      </c>
+      <c r="G189" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>1621.8</v>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J189" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" s="2" t="n">
+        <v>-209.52</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>6390.6</v>
+      </c>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J190" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" s="2" t="n">
+        <v>6390.6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>Ecuafields</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>10944</v>
+      </c>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J191" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="2" t="n">
+        <v>10944</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>33519.2</v>
+      </c>
+      <c r="G192" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>31946.54</v>
+      </c>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J192" s="2" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K192" s="2" t="n">
+        <v>1345.16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>Fresh Fruits Company Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>3380</v>
+      </c>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J193" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" s="2" t="n">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Mirak Royal Nature Fruit and Veget</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J194" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>World Fruit Centre Wll</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>5428.69</v>
+      </c>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>5397</v>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J195" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="K195" s="2" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Lulu Hyper Market Trading Co.W.Ll</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>10426.2</v>
+      </c>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="2" t="n">
+        <v>10426.2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Hypermarkets</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>14540.4</v>
+      </c>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="2" t="n">
+        <v>14540.4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Family Food Centre W.L.L</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Al Jazira Group</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Juan_Matas</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>5103.1</v>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="2" t="n">
+        <v>5103.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
         <is>
           <t>Mhs International Gmbh &amp; Co. Kg</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Etnico</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>-----------------</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D201" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>Total Facturas</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>1538.05</v>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="F201" s="2" t="n">
+        <v>26705.65</v>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
         <is>
           <t>Total Pagado Cliente</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>1538.05</v>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="H201" s="2" t="n">
+        <v>10786.05</v>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
         <is>
           <t>Total Comisiones Banc</t>
         </is>
       </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
+      <c r="J201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="2" t="n">
+        <v>15919.6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Fieldex</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>39917.9</v>
+      </c>
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>7529.5</v>
+      </c>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J202" s="2" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K202" s="2" t="n">
+        <v>32351.9</v>
       </c>
     </row>
   </sheetData>

--- a/estado_cuenta_clientes.xlsx
+++ b/estado_cuenta_clientes.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-29</v>
+        <v>-23</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
         <v>7968.95</v>
